--- a/Mission.Report.1.2.xlsx
+++ b/Mission.Report.1.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaipu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Susanna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEBD2D2-2681-4F60-84B3-AA70A3BEDD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A8F8E0-E5B1-4BB7-B3C2-080203993691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2805" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual and Team Missions" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="39">
   <si>
     <t>Date Fulfilled</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Anpassung des MVP durch Erweiterung der Tabelle um voraussichtliche Wiedererreichbarkeit</t>
+  </si>
+  <si>
+    <t>https://github.com/Dozentenampel/dozentenampel.github.io/wiki/Hypothesen</t>
   </si>
 </sst>
 </file>
@@ -542,27 +545,27 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.3984375" customWidth="1"/>
+    <col min="2" max="2" width="40.4140625" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -570,94 +573,94 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -679,27 +682,27 @@
       <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.3984375" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="2" max="2" width="40.4140625" customWidth="1"/>
+    <col min="3" max="3" width="59.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -707,7 +710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -718,22 +721,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -744,12 +747,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -760,17 +763,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -781,7 +784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -792,34 +795,34 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -838,30 +841,30 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.3984375" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="2" max="2" width="40.4140625" customWidth="1"/>
+    <col min="3" max="3" width="105.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -869,7 +872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -880,7 +883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -891,7 +894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -902,12 +905,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -918,7 +921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -929,7 +932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,7 +943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -951,7 +954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -962,12 +965,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>44550</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -978,34 +987,34 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1017,6 +1026,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{3710077D-D05A-4479-85CD-2E0D5E197583}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1026,31 +1036,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.3984375" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="2" max="2" width="40.4140625" customWidth="1"/>
+    <col min="3" max="3" width="95.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1069,7 +1079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1080,7 +1090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1091,12 +1101,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1107,7 +1117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1118,7 +1128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1129,7 +1139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1140,7 +1150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1151,12 +1161,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>44550</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1167,34 +1183,34 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1204,6 +1220,9 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A19:C19"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{F248CCBC-9E58-4BC3-95B5-69C9812E23F8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1212,31 +1231,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.3984375" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="2" max="2" width="40.4140625" customWidth="1"/>
+    <col min="3" max="3" width="64.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1255,7 +1274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1266,17 +1285,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1287,12 +1306,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1303,7 +1322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1314,12 +1333,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1330,7 +1349,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1341,34 +1360,34 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>19</v>
       </c>
